--- a/Import/Configurations/occupational_template.xlsx
+++ b/Import/Configurations/occupational_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1C9ABB-9CD2-4370-BA90-6550C8B3EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956981D-8C84-4107-8604-EE334FF15FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -199,82 +199,304 @@
     <t>Medical Helper</t>
   </si>
   <si>
-    <t>Kasir</t>
-  </si>
-  <si>
-    <t>Perawat Umum</t>
-  </si>
-  <si>
-    <t>Analis Laboratorium</t>
-  </si>
-  <si>
     <t>Inventory</t>
   </si>
   <si>
-    <t>Medex</t>
-  </si>
-  <si>
-    <t>Dokter Gigi</t>
-  </si>
-  <si>
-    <t>Dokter Spesialis Radiologi</t>
-  </si>
-  <si>
-    <t>Asisten Apoteker</t>
-  </si>
-  <si>
-    <t>Dokter Spesialis Jantung &amp; Pembuluh Darah</t>
-  </si>
-  <si>
     <t>Business Development Support Division Head</t>
   </si>
   <si>
-    <t>Dokter Umum</t>
-  </si>
-  <si>
-    <t>Kepala Klinik</t>
-  </si>
-  <si>
-    <t>Perawat Gigi</t>
-  </si>
-  <si>
     <t>Flight Surgeon</t>
   </si>
   <si>
-    <t>Dokter Spesialis Patologi Klinik</t>
-  </si>
-  <si>
     <t>Accounting</t>
   </si>
   <si>
     <t>Radiographer</t>
   </si>
   <si>
-    <t>Bidan</t>
-  </si>
-  <si>
     <t>Legal</t>
   </si>
   <si>
-    <t>Dokter Spesialis Penyakit Dalam</t>
-  </si>
-  <si>
-    <t>Clinic Support Dept. Head</t>
-  </si>
-  <si>
-    <t>Depo Kit</t>
-  </si>
-  <si>
     <t>Verificator</t>
   </si>
   <si>
-    <t>Apoteker</t>
-  </si>
-  <si>
     <t>Travel Clinic</t>
   </si>
   <si>
-    <t>Pendaftaran</t>
+    <t>Cashier</t>
+  </si>
+  <si>
+    <t>General Nurse</t>
+  </si>
+  <si>
+    <t>Laboratory Analyst</t>
+  </si>
+  <si>
+    <t>Medical Examiner</t>
+  </si>
+  <si>
+    <t>Radiology Specialist</t>
+  </si>
+  <si>
+    <t>Pharmacy Assistant</t>
+  </si>
+  <si>
+    <t>General Practitioner</t>
+  </si>
+  <si>
+    <t>Clinic Head</t>
+  </si>
+  <si>
+    <t>Dental Nurse</t>
+  </si>
+  <si>
+    <t>Clinical Pathology Specialist</t>
+  </si>
+  <si>
+    <t>Midwife</t>
+  </si>
+  <si>
+    <t>Internist</t>
+  </si>
+  <si>
+    <t>Clinic Support Department Head</t>
+  </si>
+  <si>
+    <t>Kit Depot</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>A medical professional who diagnoses and treats patients.</t>
+  </si>
+  <si>
+    <t>Provides medical care and support to patients.</t>
+  </si>
+  <si>
+    <t>Assists doctors and nurses with clinical and administrative tasks.</t>
+  </si>
+  <si>
+    <t>Manages patient appointments and front-desk duties.</t>
+  </si>
+  <si>
+    <t>Performs laboratory tests and prepares results.</t>
+  </si>
+  <si>
+    <t>Specializes in diagnosing diseases using imaging techniques.</t>
+  </si>
+  <si>
+    <t>Conducts research to improve medical knowledge and treatments.</t>
+  </si>
+  <si>
+    <t>Specializes in oral health, teeth, and gums.</t>
+  </si>
+  <si>
+    <t>Provides mental health counseling and therapy.</t>
+  </si>
+  <si>
+    <t>A medical doctor who specializes in mental health and prescribes medications.</t>
+  </si>
+  <si>
+    <t>Helps patients recover from physical injuries through exercises.</t>
+  </si>
+  <si>
+    <t>Assists patients in regaining skills needed for daily activities.</t>
+  </si>
+  <si>
+    <t>Helps individuals with speech and language issues.</t>
+  </si>
+  <si>
+    <t>Performs operations to treat diseases, injuries, or deformities.</t>
+  </si>
+  <si>
+    <t>Administers anesthesia during surgeries.</t>
+  </si>
+  <si>
+    <t>Specializes in diagnosing and treating heart-related conditions.</t>
+  </si>
+  <si>
+    <t>Treats skin, hair, and nail-related diseases.</t>
+  </si>
+  <si>
+    <t>Specializes in the care and treatment of children.</t>
+  </si>
+  <si>
+    <t>Provides care related to childbirth and pregnancy.</t>
+  </si>
+  <si>
+    <t>Specializes in women’s reproductive health.</t>
+  </si>
+  <si>
+    <t>Treats hormone-related diseases, such as diabetes.</t>
+  </si>
+  <si>
+    <t>Treats disorders of the brain, spine, and nervous system.</t>
+  </si>
+  <si>
+    <t>Specializes in the treatment of cancer.</t>
+  </si>
+  <si>
+    <t>Treats musculoskeletal system conditions through surgery.</t>
+  </si>
+  <si>
+    <t>Specializes in eye care and eye surgeries.</t>
+  </si>
+  <si>
+    <t>Provides primary vision care, including eye exams.</t>
+  </si>
+  <si>
+    <t>Treats conditions related to the ear, nose, and throat.</t>
+  </si>
+  <si>
+    <t>Specializes in urinary tract and male reproductive health.</t>
+  </si>
+  <si>
+    <t>Treats kidney-related disorders.</t>
+  </si>
+  <si>
+    <t>Specializes in the digestive system.</t>
+  </si>
+  <si>
+    <t>Treats lung and respiratory system disorders.</t>
+  </si>
+  <si>
+    <t>Converts healthcare diagnoses into medical codes for billing purposes.</t>
+  </si>
+  <si>
+    <t>Handles billing and insurance claims for medical services.</t>
+  </si>
+  <si>
+    <t>Provides general administrative support in the clinic.</t>
+  </si>
+  <si>
+    <t>Oversees clinic operations and staff.</t>
+  </si>
+  <si>
+    <t>Transcribes medical reports and dictations.</t>
+  </si>
+  <si>
+    <t>Provides emergency medical care and transports patients.</t>
+  </si>
+  <si>
+    <t>Provides expert advice on food and nutrition.</t>
+  </si>
+  <si>
+    <t>Specializes in the role of food in promoting health.</t>
+  </si>
+  <si>
+    <t>Manages and organizes health information records.</t>
+  </si>
+  <si>
+    <t>Maintains and updates patient medical records.</t>
+  </si>
+  <si>
+    <t>Manages blood collection and processing.</t>
+  </si>
+  <si>
+    <t>Operates X-ray machines and captures images for diagnosis.</t>
+  </si>
+  <si>
+    <t>Conducts ultrasounds to produce diagnostic images.</t>
+  </si>
+  <si>
+    <t>Performs electrocardiograms (ECG) to monitor heart activity.</t>
+  </si>
+  <si>
+    <t>Maintains and repairs medical equipment.</t>
+  </si>
+  <si>
+    <t>Provides in-home care to patients.</t>
+  </si>
+  <si>
+    <t>Ensures patients receive appropriate healthcare services.</t>
+  </si>
+  <si>
+    <t>Manages a patient's care, from diagnosis through treatment.</t>
+  </si>
+  <si>
+    <t>Assists with various medical tasks under supervision.</t>
+  </si>
+  <si>
+    <t>Handles billing and cashier duties.</t>
+  </si>
+  <si>
+    <t>General nurse responsible for providing basic nursing care.</t>
+  </si>
+  <si>
+    <t>Conducts laboratory analyses and prepares reports.</t>
+  </si>
+  <si>
+    <t>Manages medical supply inventory in the clinic.</t>
+  </si>
+  <si>
+    <t>Provides medical examinations and diagnostics.</t>
+  </si>
+  <si>
+    <t>A dentist providing oral health services.</t>
+  </si>
+  <si>
+    <t>Radiology specialist for diagnosing diseases using medical imaging.</t>
+  </si>
+  <si>
+    <t>Assists the pharmacist in dispensing medications.</t>
+  </si>
+  <si>
+    <t>Cardiologist specializing in heart and vascular diseases.</t>
+  </si>
+  <si>
+    <t>Oversees business development efforts in the clinic.</t>
+  </si>
+  <si>
+    <t>General practitioner providing primary healthcare services.</t>
+  </si>
+  <si>
+    <t>Clinic head overseeing clinical operations.</t>
+  </si>
+  <si>
+    <t>Nurse assisting in dental care.</t>
+  </si>
+  <si>
+    <t>A doctor providing medical services to aircrew personnel.</t>
+  </si>
+  <si>
+    <t>Specialist in diagnosing diseases based on laboratory analysis.</t>
+  </si>
+  <si>
+    <t>Handles the financial accounting of the clinic.</t>
+  </si>
+  <si>
+    <t>Produces medical images using radiography.</t>
+  </si>
+  <si>
+    <t>Provides prenatal care and assists in childbirth.</t>
+  </si>
+  <si>
+    <t>Provides legal support and advice within the clinic.</t>
+  </si>
+  <si>
+    <t>Internist specializing in internal medicine.</t>
+  </si>
+  <si>
+    <t>Oversees the clinic’s support services.</t>
+  </si>
+  <si>
+    <t>Manages the distribution of medical kits.</t>
+  </si>
+  <si>
+    <t>Verifies patient information and insurance claims.</t>
+  </si>
+  <si>
+    <t>A pharmacist responsible for dispensing medications.</t>
+  </si>
+  <si>
+    <t>Provides healthcare services for travelers, including vaccinations.</t>
+  </si>
+  <si>
+    <t>Handles patient registration and appointment scheduling.</t>
   </si>
 </sst>
 </file>
@@ -327,9 +549,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,13 +882,13 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,380 +903,608 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B55" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B61" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B65" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B67" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B68" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>77</v>
+      <c r="B77" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
